--- a/dzieci.xlsx
+++ b/dzieci.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tp/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{601AD83D-E28B-1F46-BDFE-2DAF21A4657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B493B5-2F20-0A46-B03C-DD7F9FF44CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7340" yWindow="5820" windowWidth="27440" windowHeight="16240" xr2:uid="{0F2019C7-C23F-1C43-BA2C-2ACB090D50DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="dzieci" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
